--- a/EXCEL planilha dados - Exercicio 3.xlsx
+++ b/EXCEL planilha dados - Exercicio 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hants\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hants\OneDrive\Documentos\excel\atividade excel lista 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41F457-8031-4E9C-A3B2-EDBA66DF4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B0942-1427-47B1-902D-E4347A8E3D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B1E179E-1C66-4AD7-AD58-5C4D9E42DC39}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B1E179E-1C66-4AD7-AD58-5C4D9E42DC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -609,11 +609,11 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,7 +976,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,14 +1072,14 @@
         <v>0.02</v>
       </c>
       <c r="G4" s="10">
-        <f>SUM(C4*2%)</f>
+        <f ca="1">IF(E4 &gt; 0, C4*F4,0)</f>
         <v>300</v>
       </c>
       <c r="H4" s="10">
-        <f ca="1">IF(B1&gt;B4,C4+G4,)</f>
+        <f ca="1">IF(E4=0,"",C4+G4)</f>
         <v>15300</v>
       </c>
-      <c r="I4" s="38" t="str">
+      <c r="I4" s="37" t="str">
         <f ca="1">IF(E4&gt;30,"ENVIAR PARA PROTESTO","NORMAL")</f>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -1106,14 +1106,14 @@
         <v>0.02</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G12" si="1">SUM(C5*2%)</f>
-        <v>260</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H12" si="2">IF(B2&gt;B5,C5+G5,)</f>
+        <f t="shared" ref="G5:G12" ca="1" si="1">IF(E5 &gt; 0, C5*F5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="38" t="str">
+      <c r="H5" s="10" t="str">
+        <f t="shared" ref="H5:H12" ca="1" si="2">IF(E5=0,"",C5+G5)</f>
+        <v/>
+      </c>
+      <c r="I5" s="37" t="str">
         <f t="shared" ref="I5:I12" ca="1" si="3">IF(E5&gt;30,"ENVIAR PARA PROTESTO","NORMAL")</f>
         <v>NORMAL</v>
       </c>
@@ -1140,14 +1140,14 @@
         <v>0.02</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>300</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>15300</v>
       </c>
-      <c r="I6" s="38" t="str">
+      <c r="I6" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -1174,14 +1174,14 @@
         <v>0.02</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="I7" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -1208,14 +1208,14 @@
         <v>0.02</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>204</v>
       </c>
-      <c r="I8" s="38" t="str">
+      <c r="I8" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -1242,14 +1242,14 @@
         <v>0.02</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="1"/>
-        <v>7.04</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="38" t="str">
+      <c r="H9" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>NORMAL</v>
       </c>
@@ -1276,14 +1276,14 @@
         <v>0.02</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>459</v>
       </c>
-      <c r="I10" s="38" t="str">
+      <c r="I10" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -1310,14 +1310,14 @@
         <v>0.02</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="38" t="str">
+      <c r="H11" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>NORMAL</v>
       </c>
@@ -1344,14 +1344,14 @@
         <v>0.02</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>80</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4080</v>
       </c>
-      <c r="I12" s="38" t="str">
+      <c r="I12" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>ENVIAR PARA PROTESTO</v>
       </c>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C54279-273D-4803-8842-BF3DE235C753}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,17 +2106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -2222,7 +2222,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="35">
-        <v>85.5</v>
+        <v>87.5</v>
       </c>
       <c r="D5" s="7">
         <v>30</v>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="H5" s="35">
         <f t="shared" si="2"/>
-        <v>1966.5</v>
+        <v>2012.5</v>
       </c>
       <c r="I5" s="36">
         <f>SUM(H5/D21)</f>
-        <v>390.17857142857144</v>
+        <v>399.30555555555554</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="35">
-        <v>25.9</v>
+        <v>27.9</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="H6" s="35">
         <f t="shared" si="2"/>
-        <v>51.8</v>
+        <v>55.8</v>
       </c>
       <c r="I6" s="36">
         <f>SUM(H6/D21)</f>
-        <v>10.277777777777777</v>
+        <v>11.071428571428571</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2618,7 +2618,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="7">
         <v>10</v>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="H17" s="35">
         <f t="shared" si="2"/>
-        <v>4.8000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="I17" s="36">
         <f>SUM(H17/D21)</f>
-        <v>0.95238095238095255</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
